--- a/数据整理/stocks/A股/科创板/688981-中芯国际.xlsx
+++ b/数据整理/stocks/A股/科创板/688981-中芯国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3329,4 +3330,1502 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>281.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>25.3311</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>201.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>18.5396</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>147.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>14.7180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>113.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.4779</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.7052</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.4101</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.4915</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0454</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7216</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3589</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007781</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘弘新混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004083</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>32.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004084</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>32.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688981-中芯国际.xlsx
+++ b/数据整理/stocks/A股/科创板/688981-中芯国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4828,4 +4829,1732 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>222.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.6972</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>253.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20.5111</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>158.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12.8588</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>112.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.4688</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.5941</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.1283</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.0350</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9248</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4545</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>66.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3916</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8154</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7887</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9554</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8751</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8285</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7834</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7715</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6008</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4469</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4394</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2772</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004083</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>31.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>58.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>37.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004084</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>31.82</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688981-中芯国际.xlsx
+++ b/数据整理/stocks/A股/科创板/688981-中芯国际.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6557,4 +6558,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>78.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>89.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688981-中芯国际.xlsx
+++ b/数据整理/stocks/A股/科创板/688981-中芯国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6566,7 +6567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6577,17 +6578,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6597,14 +6618,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>44</v>
-      </c>
-      <c r="D2" t="n">
-        <v>94.3</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>206.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.1511</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6613,14 +6656,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>88.7</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>274.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16.9656</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -6629,14 +6694,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>78.64</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>179.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>14.2989</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6645,13 +6732,2581 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>109.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.6800</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>121.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.3070</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.4042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.6551</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>69.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9510</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.8723</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7442</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6967</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>40.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6964</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6247</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2660</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2022</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0658</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8816</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8489</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8406</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8127</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6660</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6450</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4499</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3730</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3537</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2946</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>62.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>35.12</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519619</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519621</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>519620</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>68</v>
+      </c>
+      <c r="D2" t="n">
+        <v>106.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" t="n">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>78.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>49</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>89.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688981-中芯国际.xlsx
+++ b/数据整理/stocks/A股/科创板/688981-中芯国际.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9205,7 +9206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9216,17 +9217,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9236,14 +9257,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>68</v>
-      </c>
-      <c r="D2" t="n">
-        <v>106.77</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>226.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22.4400</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -9252,14 +9295,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>44</v>
-      </c>
-      <c r="D3" t="n">
-        <v>94.3</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>246.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.8434</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -9268,14 +9333,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>88.7</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>171.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>14.3825</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -9284,14 +9371,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>78.64</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>105.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.4394</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -9300,13 +9409,2977 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>115.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.9048</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.2821</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.8690</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.1382</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.7415</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2928</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6928</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4586</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9871</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8894</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8882</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8783</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7988</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7774</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5681</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5520</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4397</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3727</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>72.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3698</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2546</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>107.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>106.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>78.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>49</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>89.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688981-中芯国际.xlsx
+++ b/数据整理/stocks/A股/科创板/688981-中芯国际.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12262,7 +12263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12273,17 +12274,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12293,14 +12314,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>79</v>
-      </c>
-      <c r="D2" t="n">
-        <v>107.11</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>282.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>26.9289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -12309,14 +12352,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>68</v>
-      </c>
-      <c r="D3" t="n">
-        <v>106.77</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>266.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.0638</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -12325,14 +12390,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>44</v>
-      </c>
-      <c r="D4" t="n">
-        <v>94.3</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>166.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12.7899</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -12341,14 +12428,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
-        <v>88.7</v>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>194.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.4367</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -12357,14 +12466,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>78.64</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>127.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12.1765</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -12373,13 +12504,3411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>125.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.9826</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>109.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7.4206</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.2129</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.0537</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7287</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>47.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9246</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4851</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3763</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2991</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2167</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9502</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8917</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7862</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7855</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7830</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7110</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6593</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4760</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4760</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4447</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3775</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3739</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3455</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2939</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2545</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2238</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>71.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014218</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012040</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014219</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014173</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>71.56</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>91</v>
+      </c>
+      <c r="D2" t="n">
+        <v>124.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>79</v>
+      </c>
+      <c r="D3" t="n">
+        <v>107.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>106.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>78.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>49</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>89.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688981-中芯国际.xlsx
+++ b/数据整理/stocks/A股/科创板/688981-中芯国际.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2" t="n">
-        <v>124.81</v>
+        <v>111.32</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D3" t="n">
-        <v>107.11</v>
+        <v>124.81</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>106.77</v>
+        <v>107.11</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D5" t="n">
-        <v>94.3</v>
+        <v>106.77</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>88.7</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>78.64</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>78.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>49</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>89.45</v>
       </c>
     </row>
@@ -600,6 +617,3556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>293.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>26.9983</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>177.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.3340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>123.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.4475</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>142.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.0891</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安半导体ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>122.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.6207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>239.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.6746</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>112.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7.5170</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.8272</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.6281</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>58.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3216</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>39.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5624</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4378</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3419</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2315</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2022</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1621</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6823</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6686</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5406</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5260</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5037</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4091</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50ETF联接C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>59.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3861</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3755</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3355</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3113</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3076</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159603</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>517850</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深张江自主创新50ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实新兴科技100ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>588390</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>561100</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50ETF联接A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>59.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516350</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>588150</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>561310</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159779</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159769</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银华中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>588310</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>方正富邦中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006785</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014218</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014724</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东方量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159853</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012040</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014219</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015676</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014173</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>016010</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数E</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4111,7 +7678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7167,7 +10734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9805,7 +13372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11533,7 +15100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13031,7 +16598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13999,7 +17566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688981-中芯国际.xlsx
+++ b/数据整理/stocks/A股/科创板/688981-中芯国际.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D2" t="n">
-        <v>111.32</v>
+        <v>143.78</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
-        <v>124.81</v>
+        <v>111.32</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n">
-        <v>107.11</v>
+        <v>124.81</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D5" t="n">
-        <v>106.77</v>
+        <v>107.11</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D6" t="n">
-        <v>94.3</v>
+        <v>106.77</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>88.7</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>78.64</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1948 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>78.64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>49</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>89.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>327.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>32.1860</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>184.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.8997</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>124.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.4240</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.2720</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.9509</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.4856</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.4781</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7553</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7510</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1838</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1256</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4910</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002413</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002414</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002618</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>49.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002619</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515350</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004153</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>37.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004154</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>37.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004083</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>38.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006823</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>凯石湛混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006822</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>凯石湛混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>34.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>34.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004084</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>38.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2552,3974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>508.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>45.7951</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>204.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16.8308</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>169.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15.2030</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>145.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.0359</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安半导体ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>145.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10.0112</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>130.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>8.7420</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>54.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.9090</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.1852</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4447</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9165</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8249</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6239</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5881</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5856</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>100.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2334</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1072</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>588350</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7829</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159603</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7821</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7055</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7035</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6744</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6264</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5835</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5101</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4499</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4475</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4280</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3988</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3962</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004093</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金元顺安桉盛债券A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3358</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2906</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2666</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>588200</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>517850</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深张江自主创新50ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实新兴科技100ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516350</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>588390</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>561100</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>588150</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>588290</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>561310</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159779</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>560990</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中金中证科技先锋ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>588310</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>方正富邦中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159769</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银华中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014218</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>016122</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华富中证科创创业50指数增强A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>016123</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华富中证科创创业50指数增强C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015937</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159853</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014219</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012040</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>015676</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>016010</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数E</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4166,7 +10069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7678,7 +13581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10734,7 +16637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13372,7 +19275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15100,7 +21003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16598,7 +22501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17564,1922 +23467,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>327.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>32.1860</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519674</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银河创新成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>184.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>14.8997</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>588000</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>124.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>11.4240</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002560</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安和鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>82.17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>7.2720</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>588080</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>65.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>5.9509</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>588090</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>49.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>4.4856</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>588050</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>49.21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.68</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>4.4781</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>506003</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国科创板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>28.22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>97.15</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.7553</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008895</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>申万菱信量化对冲策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>56.17</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>20.36</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.7510</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004666</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>19.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.1838</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519670</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银河行业混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.1256</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501095</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>79.05</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4910</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008851</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>12.68</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>75.69</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2612</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005125</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2292</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>501029</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2292</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002350</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华安安华灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12.36</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>24.90</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2002</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001470</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>融通通鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>30.44</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1561</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002413</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中银瑞利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>22.79</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1077</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001111</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中欧瑾泉灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>23.55</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1051</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001110</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中欧瑾泉灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>23.55</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1010</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002510</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0922</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004405</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>国寿安保稳寿混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>26.16</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0917</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002414</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中银瑞利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>22.79</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0840</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002618</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中银裕利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0798</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007831</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0784</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008846</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>大成民稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>22.03</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0772</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009263</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0681</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>162216</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>泰达宏利中证500指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002594</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>工银瑞信现代服务业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>49.39</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0448</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002619</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中银裕利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0421</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>519677</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0413</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>515350</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>民生加银沪深300ETF</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>98.43</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0387</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>004153</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>信诚新悦回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>37.33</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>004154</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>信诚新悦回报灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>37.33</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>004083</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>国联安鑫隆混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>38.26</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0353</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>004406</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>国寿安保稳寿混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>26.16</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>007832</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>008847</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>大成民稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>22.03</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006823</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>凯石湛混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>77.93</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>004250</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>银河量化优选混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>007795</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>006822</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>凯石湛混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>77.93</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>004917</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>中银证券祥瑞混合A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>78.61</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>004918</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>中银证券祥瑞混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>78.61</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>005429</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>34.94</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>005021</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>渤海汇金量化汇盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>010841</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>005430</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>34.94</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>004084</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>国联安鑫隆混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>38.26</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>